--- a/RLSdatabaseworkinprogress.xlsx
+++ b/RLSdatabaseworkinprogress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikesportiello/Documents/GitHub/fluximplied/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D00DBC1-DCCD-2A42-BFC8-8258D7F189AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0445E7-1E16-2E4A-B913-2061241D4713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" activeTab="1" xr2:uid="{5DAAD730-A5B0-5B45-B237-C2A24E780295}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{5DAAD730-A5B0-5B45-B237-C2A24E780295}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="778">
-  <si>
-    <t>ydrate metabolism</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="788">
   <si>
     <t>M00001</t>
   </si>
@@ -286,9 +283,6 @@
     <t>M00132</t>
   </si>
   <si>
-    <t>fixation</t>
-  </si>
-  <si>
     <t>M00165</t>
   </si>
   <si>
@@ -2369,6 +2363,42 @@
   </si>
   <si>
     <t>Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>Pfk1</t>
+  </si>
+  <si>
+    <t>Fbp1</t>
+  </si>
+  <si>
+    <t>Suzanne D. DeBrosse, Douglas S. Kerr, in Mitochondrial Case Studies, 2016</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>Pdha1</t>
+  </si>
+  <si>
+    <t>https://www.chem.uwec.edu/Webpapers2001/bauere/Pages/Isocitrate_dehyd/FullPagesISO/ISO_info.html</t>
+  </si>
+  <si>
+    <t>Idh2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/oncsis.2014.18</t>
+  </si>
+  <si>
+    <t>G6pdx</t>
+  </si>
+  <si>
+    <t>Ppat</t>
+  </si>
+  <si>
+    <t>Kimiyoshi Ichida, ... Hitoshi Endou, in Genetic Diseases of the Kidney, 2009</t>
   </si>
 </sst>
 </file>
@@ -2745,3168 +2775,3168 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
         <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
         <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
         <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B123" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B143" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B144" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B147" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B157" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B169" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B170" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B173" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B174" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B175" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B178" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B180" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B181" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B183" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B184" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B186" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B187" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B188" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B189" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B190" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B191" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B192" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B194" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B195" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B196" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B197" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B198" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B202" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B208" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B209" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B210" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B211" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B212" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B213" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B214" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B215" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B216" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B218" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B219" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B220" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B221" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B222" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B228" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B229" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B230" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B231" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B232" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B236" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B237" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B238" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B239" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B240" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B241" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B242" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B243" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B244" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B245" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B246" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B247" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B248" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B249" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B250" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B251" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B252" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B253" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B254" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B255" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B256" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B257" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B258" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B259" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B260" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B261" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B262" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B263" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B264" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B265" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B266" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B267" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B268" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B269" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B270" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B271" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B272" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B273" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B274" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B275" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B276" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B277" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B278" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B279" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B280" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B281" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B282" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B283" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B284" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B285" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B286" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B289" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B290" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B291" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B292" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B293" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B294" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B295" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B297" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B298" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B299" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B300" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B301" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B302" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B304" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B305" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B306" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B307" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B308" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B309" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B311" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B312" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B313" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B314" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B315" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B316" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B317" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B318" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B319" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B320" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B321" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B323" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B324" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B325" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B326" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B327" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B328" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B329" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B330" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B332" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B333" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B334" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B335" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B336" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B337" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B338" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B339" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B340" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B341" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B342" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B345" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B346" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B347" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B348" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B349" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B350" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B351" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B353" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B354" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B355" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B356" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B357" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B359" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B360" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B361" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B362" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B363" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B364" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B365" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B366" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B367" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B368" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B369" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B371" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B372" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B373" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B374" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B375" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B376" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B378" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B379" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B380" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B381" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B382" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B383" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B384" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B385" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B386" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B387" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B388" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B389" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B390" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B391" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B394" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B395" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B396" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B397" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B398" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B399" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B400" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B401" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B402" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B403" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B404" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B405" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B406" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B407" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B408" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B409" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B410" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B411" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B412" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B413" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B414" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -6285,1236 +6315,1274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043526E-41A1-F848-849E-1F318DE842A4}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>781</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>783</v>
+      </c>
+      <c r="D9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>785</v>
+      </c>
+      <c r="D12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>733</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>737</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>743</v>
+      <c r="A47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" t="s">
-        <v>173</v>
+      <c r="A48" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>741</v>
+      <c r="A55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>196</v>
+      <c r="A56" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>745</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" t="s">
-        <v>218</v>
+      <c r="A70" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>746</v>
+      <c r="A73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B74" t="s">
-        <v>226</v>
+      <c r="A74" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>748</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" t="s">
-        <v>234</v>
+      <c r="A81" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>749</v>
+      <c r="A83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B84" t="s">
-        <v>244</v>
+      <c r="A84" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B88" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B90" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B92" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>296</v>
+      <c r="A96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B97" t="s">
-        <v>296</v>
+      <c r="A97" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>753</v>
+      <c r="A100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B101" t="s">
-        <v>305</v>
+      <c r="A101" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>754</v>
+      <c r="A102" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B103" t="s">
-        <v>318</v>
+      <c r="A103" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B106" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>755</v>
+      <c r="A108" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B109" t="s">
-        <v>332</v>
+      <c r="A109" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>757</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B115" t="s">
-        <v>338</v>
+      <c r="A115" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B118" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B121" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B124" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B125" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>758</v>
+      <c r="A126" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B127" t="s">
-        <v>362</v>
+      <c r="A127" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B133" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>759</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B139" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B141" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B142" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B143" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B144" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B145" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B146" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>763</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B152" t="s">
-        <v>491</v>
+      <c r="A152" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B153" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>504</v>
+      <c r="A154" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="B154" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B155" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B156" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="B157" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="B158" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>489</v>
-      </c>
-      <c r="B160" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>489</v>
-      </c>
-      <c r="B162" t="s">
-        <v>599</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>572</v>
+      </c>
+      <c r="B159" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>487</v>
+      </c>
+      <c r="B161" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B163" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B164" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B166" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>487</v>
+      </c>
+      <c r="B167" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>688</v>
+      </c>
+      <c r="B169" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" t="s">
         <v>690</v>
-      </c>
-      <c r="B168" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>306</v>
-      </c>
-      <c r="B170" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.genome.jp/module/mmu_M00001" xr:uid="{13BB60A7-93D0-2849-B084-BAE7C1089B65}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://www.genome.jp/module/mmu_M00002" xr:uid="{50C14703-7DD6-4142-A6F9-0DE0BBD37F97}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.genome.jp/module/mmu_M00003" xr:uid="{C23889EF-8E0F-114D-B4DB-9AC7C3BEEE2F}"/>
-    <hyperlink ref="A7" r:id="rId4" display="https://www.genome.jp/module/mmu_M00307" xr:uid="{3A52CCE3-6549-C249-AEBD-6B83594C16B3}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.genome.jp/module/mmu_M00009" xr:uid="{68B09BDB-C676-A04F-8E47-50442B28C851}"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://www.genome.jp/module/mmu_M00010" xr:uid="{A37E1D7A-7A13-4142-A01E-851679D94240}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.genome.jp/module/mmu_M00011" xr:uid="{608D00B3-3E24-4B4C-88C9-F2A8D46A1DCC}"/>
-    <hyperlink ref="A11" r:id="rId8" display="https://www.genome.jp/module/mmu_M00004" xr:uid="{03DA80F2-6199-E940-9C56-036D5DABDA6C}"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.genome.jp/module/mmu_M00006" xr:uid="{56B180ED-A136-B849-AB7E-B263CF67FFED}"/>
-    <hyperlink ref="A13" r:id="rId10" display="https://www.genome.jp/module/mmu_M00007" xr:uid="{04C07B52-6A0F-E34F-AE28-772AC05EEFA3}"/>
-    <hyperlink ref="A14" r:id="rId11" display="https://www.genome.jp/module/mmu_M00005" xr:uid="{955D1BF2-A147-214E-B4B7-EFDB986F832E}"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://www.genome.jp/module/mmu_M00014" xr:uid="{C97FDDA6-1FA3-C646-9324-F080C0C0334D}"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://www.genome.jp/module/mmu_M00632" xr:uid="{12D202A1-EF96-3046-9310-DAE549D47B18}"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://www.genome.jp/module/mmu_M00129" xr:uid="{70145F47-DA88-3740-801D-B3D3153DC709}"/>
-    <hyperlink ref="A19" r:id="rId15" display="https://www.genome.jp/module/mmu_M00854" xr:uid="{8962133A-D33F-BA47-805A-DDFF88195BB6}"/>
-    <hyperlink ref="A20" r:id="rId16" display="https://www.genome.jp/module/mmu_M00855" xr:uid="{0205BEF3-CE0F-7A40-9E3A-CB8138691EBA}"/>
-    <hyperlink ref="A21" r:id="rId17" display="https://www.genome.jp/module/mmu_M00549" xr:uid="{2430B992-D4C0-1A4C-A1C1-E573FD2A1617}"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://www.genome.jp/module/mmu_M00554" xr:uid="{955E8611-86AB-7046-BCAA-3233CABBC967}"/>
-    <hyperlink ref="A23" r:id="rId19" display="https://www.genome.jp/module/mmu_M00892" xr:uid="{9FF3A924-86BE-5349-9731-35727DFC883E}"/>
-    <hyperlink ref="A24" r:id="rId20" display="https://www.genome.jp/module/mmu_M00741" xr:uid="{91CC6A4E-859D-6648-B3A9-B74625648B6E}"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://www.genome.jp/module/mmu_M00130" xr:uid="{1C9A56D0-21E1-084B-873C-7D3B6A888A89}"/>
-    <hyperlink ref="A26" r:id="rId22" display="https://www.genome.jp/module/mmu_M00131" xr:uid="{F56FAC60-E18D-F64D-B7B1-551256FD60CD}"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://www.genome.jp/module/mmu_M00132" xr:uid="{1C5C97B3-61EF-4448-AC59-B51315F64EB4}"/>
-    <hyperlink ref="A39" r:id="rId24" display="https://www.genome.jp/module/mmu_M00082" xr:uid="{BBAEB398-E841-6245-A815-3E7CB2A607B0}"/>
-    <hyperlink ref="A40" r:id="rId25" display="https://www.genome.jp/module/mmu_M00083" xr:uid="{746A558E-9E86-4D44-B816-51AAF0960A93}"/>
-    <hyperlink ref="A41" r:id="rId26" display="https://www.genome.jp/module/mmu_M00873" xr:uid="{16DE6855-BA62-B74A-8D6C-14F549EBBCA8}"/>
-    <hyperlink ref="A42" r:id="rId27" display="https://www.genome.jp/module/mmu_M00085" xr:uid="{E7E0A911-1E15-F343-9E79-81C0E6CAFA30}"/>
-    <hyperlink ref="A43" r:id="rId28" display="https://www.genome.jp/module/mmu_M00415" xr:uid="{E1EF69C0-FA7A-A340-BA51-AB915A4F4984}"/>
-    <hyperlink ref="A44" r:id="rId29" display="https://www.genome.jp/module/mmu_M00086" xr:uid="{80DB95DA-60F4-2747-9C0E-6C02854ADC5D}"/>
-    <hyperlink ref="A45" r:id="rId30" display="https://www.genome.jp/module/mmu_M00087" xr:uid="{F41726B7-E5E4-D048-9DE2-6EC44D9B79EA}"/>
-    <hyperlink ref="A46" r:id="rId31" display="https://www.genome.jp/module/mmu_M00861" xr:uid="{DCF8C8F0-C2A4-C445-902B-2CCC4895D07C}"/>
-    <hyperlink ref="A48" r:id="rId32" display="https://www.genome.jp/module/mmu_M00101" xr:uid="{3808AEE2-2333-9945-B1D8-5FDB9D4736BC}"/>
-    <hyperlink ref="A49" r:id="rId33" display="https://www.genome.jp/module/mmu_M00103" xr:uid="{59A081FF-1F2F-D148-9217-ADD82E01595F}"/>
-    <hyperlink ref="A50" r:id="rId34" display="https://www.genome.jp/module/mmu_M00106" xr:uid="{9316FE42-3F82-B649-8141-B18A283E5E92}"/>
-    <hyperlink ref="A51" r:id="rId35" display="https://www.genome.jp/module/mmu_M00862" xr:uid="{EAE62B0C-BAD9-E845-8355-C5BE60B9E5FD}"/>
-    <hyperlink ref="A52" r:id="rId36" display="https://www.genome.jp/module/mmu_M00107" xr:uid="{D6D3F57A-2472-D648-A4F5-A7248809AB33}"/>
-    <hyperlink ref="A53" r:id="rId37" display="https://www.genome.jp/module/mmu_M00109" xr:uid="{698C436E-FD57-F042-B19E-0C84AEAF89B2}"/>
-    <hyperlink ref="A54" r:id="rId38" display="https://www.genome.jp/module/mmu_M00110" xr:uid="{CC37E696-0841-D744-AD5C-FA5DE61A124D}"/>
-    <hyperlink ref="A56" r:id="rId39" display="https://www.genome.jp/module/mmu_M00089" xr:uid="{95A9F07A-750F-FD40-B430-0D727206A705}"/>
-    <hyperlink ref="A57" r:id="rId40" display="https://www.genome.jp/module/mmu_M00098" xr:uid="{30FF2D43-6EA5-424B-8028-9584D667C7B7}"/>
-    <hyperlink ref="A58" r:id="rId41" display="https://www.genome.jp/module/mmu_M00090" xr:uid="{E27C6303-7D08-6F41-AA58-FD7E9B78A0B8}"/>
-    <hyperlink ref="A59" r:id="rId42" display="https://www.genome.jp/module/mmu_M00091" xr:uid="{E5406A9C-754F-7041-8485-3892BE054CE0}"/>
-    <hyperlink ref="A60" r:id="rId43" display="https://www.genome.jp/module/mmu_M00092" xr:uid="{E45FF3BF-AA67-9A4A-83B5-C7C4ED113D01}"/>
-    <hyperlink ref="A61" r:id="rId44" display="https://www.genome.jp/module/mmu_M00094" xr:uid="{BBFB0178-9F61-1E41-ACFE-6EBEA1C4318B}"/>
-    <hyperlink ref="A62" r:id="rId45" display="https://www.genome.jp/module/mmu_M00066" xr:uid="{6EEEAF9D-A86B-D64F-852B-AFC1316C7E4C}"/>
-    <hyperlink ref="A63" r:id="rId46" display="https://www.genome.jp/module/mmu_M00067" xr:uid="{3F99BB4F-344A-164E-80C0-467448CF1DC1}"/>
-    <hyperlink ref="A64" r:id="rId47" display="https://www.genome.jp/module/mmu_M00099" xr:uid="{8D0F745B-B7F3-9049-8D8F-5E9D9EF2C581}"/>
-    <hyperlink ref="A65" r:id="rId48" display="https://www.genome.jp/module/mmu_M00100" xr:uid="{95F536E7-4995-8E43-8CCC-43E67C8C6A0F}"/>
-    <hyperlink ref="A70" r:id="rId49" display="https://www.genome.jp/module/mmu_M00048" xr:uid="{D5720EA8-7633-D74A-8132-DBB5278D856A}"/>
-    <hyperlink ref="A71" r:id="rId50" display="https://www.genome.jp/module/mmu_M00049" xr:uid="{A9217C60-06FB-6A4F-97B5-80552C818190}"/>
-    <hyperlink ref="A72" r:id="rId51" display="https://www.genome.jp/module/mmu_M00050" xr:uid="{86A26D7F-8D7D-0840-B500-49B45B3CFD46}"/>
-    <hyperlink ref="A74" r:id="rId52" display="https://www.genome.jp/module/mmu_M00051" xr:uid="{60C6E18B-E5BD-D94A-AE31-FFACC2D32F83}"/>
-    <hyperlink ref="A75" r:id="rId53" display="https://www.genome.jp/module/mmu_M00052" xr:uid="{B1DFEE25-A8D5-814E-A42F-3B799CA0BA9D}"/>
-    <hyperlink ref="A76" r:id="rId54" display="https://www.genome.jp/module/mmu_M00046" xr:uid="{678E34DE-A3FA-2C4D-ABC5-34994ADCBB97}"/>
-    <hyperlink ref="A81" r:id="rId55" display="https://www.genome.jp/module/mmu_M00020" xr:uid="{DD0781E9-AD35-C247-822A-4EA5A7BB1317}"/>
-    <hyperlink ref="A82" r:id="rId56" display="https://www.genome.jp/module/mmu_M00555" xr:uid="{D82B662C-0F8D-954B-B936-8D40B76D7A89}"/>
-    <hyperlink ref="A84" r:id="rId57" display="https://www.genome.jp/module/mmu_M00338" xr:uid="{8F1E5A45-76C1-A84C-AD90-DFD8BEBFC56F}"/>
-    <hyperlink ref="A85" r:id="rId58" display="https://www.genome.jp/module/mmu_M00034" xr:uid="{AE4256E1-ABC6-7645-9FC2-5C69163642E3}"/>
-    <hyperlink ref="A86" r:id="rId59" display="https://www.genome.jp/module/mmu_M00035" xr:uid="{33F3A7CC-83B1-F240-AB2A-F8DC1068B9F9}"/>
-    <hyperlink ref="A88" r:id="rId60" display="https://www.genome.jp/module/mmu_M00036" xr:uid="{D19FC678-16DB-F047-B7B0-4424AF5DD699}"/>
-    <hyperlink ref="A90" r:id="rId61" display="https://www.genome.jp/module/mmu_M00032" xr:uid="{5CF0FD7F-024A-2D42-8070-2E098F91CFC6}"/>
-    <hyperlink ref="A92" r:id="rId62" display="https://www.genome.jp/module/mmu_M00844" xr:uid="{0DB4C0B9-C30C-134E-9783-49B49D63A304}"/>
-    <hyperlink ref="A93" r:id="rId63" display="https://www.genome.jp/module/mmu_M00029" xr:uid="{FE1DA1E2-595D-5941-8C2E-AFF93107A014}"/>
-    <hyperlink ref="A94" r:id="rId64" display="https://www.genome.jp/module/mmu_M00015" xr:uid="{AADAD86A-0066-5649-90D9-37E8F0A24A8F}"/>
-    <hyperlink ref="A95" r:id="rId65" display="https://www.genome.jp/module/mmu_M00047" xr:uid="{2CF9D411-2C5F-EF4B-AC50-398AFB69D160}"/>
-    <hyperlink ref="A97" r:id="rId66" display="https://www.genome.jp/module/mmu_M00133" xr:uid="{E44BBA49-6FE9-EF40-AE8B-4CFA8D9CFB13}"/>
-    <hyperlink ref="A98" r:id="rId67" display="https://www.genome.jp/module/mmu_M00134" xr:uid="{8632991C-6033-CD4C-A73C-91B9384CF7BE}"/>
-    <hyperlink ref="A99" r:id="rId68" display="https://www.genome.jp/module/mmu_M00135" xr:uid="{D55CCCDE-E877-E343-8C37-990933691FAD}"/>
-    <hyperlink ref="A101" r:id="rId69" display="https://www.genome.jp/module/mmu_M00045" xr:uid="{7CC5595D-BB74-E34F-B040-4B7828F16087}"/>
-    <hyperlink ref="A103" r:id="rId70" display="https://www.genome.jp/module/mmu_M00042" xr:uid="{08B39879-857D-D344-A896-E5FCFD097EAE}"/>
-    <hyperlink ref="A104" r:id="rId71" display="https://www.genome.jp/module/mmu_M00043" xr:uid="{851B0437-559D-2D4B-8D81-B16F614FAF4D}"/>
-    <hyperlink ref="A105" r:id="rId72" display="https://www.genome.jp/module/mmu_M00044" xr:uid="{2AC93909-B5EE-D647-8978-AFAD1BC9A150}"/>
-    <hyperlink ref="A106" r:id="rId73" display="https://www.genome.jp/module/mmu_M00037" xr:uid="{7BF63CFF-4703-3847-92FF-F29792EAE615}"/>
-    <hyperlink ref="A107" r:id="rId74" display="https://www.genome.jp/module/mmu_M00038" xr:uid="{DEFF0903-87EF-5444-A9B4-5AE766FE9AB3}"/>
-    <hyperlink ref="A109" r:id="rId75" display="https://www.genome.jp/module/mmu_M00027" xr:uid="{A5B5D288-25F0-4944-A91D-3AA81EDB789A}"/>
-    <hyperlink ref="A110" r:id="rId76" display="https://www.genome.jp/module/mmu_M00118" xr:uid="{5516E71D-4277-A541-9116-E8E62119E867}"/>
-    <hyperlink ref="A115" r:id="rId77" display="https://www.genome.jp/module/mmu_M00055" xr:uid="{20FE956C-CA0C-DE4B-BF8E-30788E418AD2}"/>
-    <hyperlink ref="A116" r:id="rId78" display="https://www.genome.jp/module/mmu_M00072" xr:uid="{B71FE16A-3037-8442-B725-7C935A989890}"/>
-    <hyperlink ref="A117" r:id="rId79" display="https://www.genome.jp/module/mmu_M00073" xr:uid="{D9F6BA15-CC64-2347-ABD7-D81C23EAB745}"/>
-    <hyperlink ref="A118" r:id="rId80" display="https://www.genome.jp/module/mmu_M00075" xr:uid="{ED23803A-BE33-7D4A-9C49-6D4F6335DFA5}"/>
-    <hyperlink ref="A119" r:id="rId81" display="https://www.genome.jp/module/mmu_M00056" xr:uid="{ED17EA33-5EE9-7E40-8235-ED7718D65F6F}"/>
-    <hyperlink ref="A120" r:id="rId82" display="https://www.genome.jp/module/mmu_M00872" xr:uid="{C2128BD3-8072-4D4A-9503-B48A7AFAADB9}"/>
-    <hyperlink ref="A121" r:id="rId83" display="https://www.genome.jp/module/mmu_M00065" xr:uid="{D8F20DCF-E286-154C-9D6C-86E624834D27}"/>
-    <hyperlink ref="A122" r:id="rId84" display="https://www.genome.jp/module/mmu_M00070" xr:uid="{07ED02B4-2BF3-2A4D-A621-96EAD5A24F4D}"/>
-    <hyperlink ref="A123" r:id="rId85" display="https://www.genome.jp/module/mmu_M00071" xr:uid="{D798C74D-2EC5-AC4C-A5F2-83FEB40CEB5A}"/>
-    <hyperlink ref="A124" r:id="rId86" display="https://www.genome.jp/module/mmu_M00068" xr:uid="{F34FDA83-92CF-354A-BF4D-707D7C26C873}"/>
-    <hyperlink ref="A125" r:id="rId87" display="https://www.genome.jp/module/mmu_M00069" xr:uid="{E1686847-F11D-704F-AF0A-9E8729137141}"/>
-    <hyperlink ref="A127" r:id="rId88" display="https://www.genome.jp/module/mmu_M00057" xr:uid="{14B60993-9898-A24F-9CA6-09DCE33B1798}"/>
-    <hyperlink ref="A128" r:id="rId89" display="https://www.genome.jp/module/mmu_M00058" xr:uid="{4622255C-E04E-E047-9CB7-E4912AA57665}"/>
-    <hyperlink ref="A129" r:id="rId90" display="https://www.genome.jp/module/mmu_M00059" xr:uid="{BB3A7608-2DE6-7945-93F9-D6A8FC8F4452}"/>
-    <hyperlink ref="A130" r:id="rId91" display="https://www.genome.jp/module/mmu_M00076" xr:uid="{B477DA15-DDEE-6249-82F2-DCD1293EFF9F}"/>
-    <hyperlink ref="A131" r:id="rId92" display="https://www.genome.jp/module/mmu_M00077" xr:uid="{B670DAAF-E3DE-7F42-A6CE-CD419328E263}"/>
-    <hyperlink ref="A132" r:id="rId93" display="https://www.genome.jp/module/mmu_M00078" xr:uid="{15ABD6B3-DDFA-B940-AB31-A74A723F1797}"/>
-    <hyperlink ref="A133" r:id="rId94" display="https://www.genome.jp/module/mmu_M00079" xr:uid="{1E008257-2C98-254E-8DC4-924767CA8A8A}"/>
-    <hyperlink ref="A139" r:id="rId95" display="https://www.genome.jp/module/mmu_M00912" xr:uid="{9688BA15-F232-3042-BAA5-3D722431E5AC}"/>
-    <hyperlink ref="A140" r:id="rId96" display="https://www.genome.jp/module/mmu_M00120" xr:uid="{A26DB127-23CC-2A4A-BC24-4E8D279A53EB}"/>
-    <hyperlink ref="A141" r:id="rId97" display="https://www.genome.jp/module/mmu_M00882" xr:uid="{F9B3F81B-CFDA-A142-A137-B83C1A7F2734}"/>
-    <hyperlink ref="A142" r:id="rId98" display="https://www.genome.jp/module/mmu_M00883" xr:uid="{96905A49-BEDB-2E4A-8A15-8326099D388D}"/>
-    <hyperlink ref="A143" r:id="rId99" display="https://www.genome.jp/module/mmu_M00842" xr:uid="{0A7D16C7-A884-3947-94BA-D1749EB01B4F}"/>
-    <hyperlink ref="A144" r:id="rId100" display="https://www.genome.jp/module/mmu_M00880" xr:uid="{0D2F5C0F-C816-2F44-B82E-7B08BB477FF7}"/>
-    <hyperlink ref="A145" r:id="rId101" display="https://www.genome.jp/module/mmu_M00141" xr:uid="{F56DF094-B453-8749-A72B-5EDF5E43191F}"/>
-    <hyperlink ref="A146" r:id="rId102" display="https://www.genome.jp/module/mmu_M00868" xr:uid="{BEA2A7AD-7B00-8245-A8C8-92DA305D7868}"/>
-    <hyperlink ref="A147" r:id="rId103" display="https://www.genome.jp/module/mmu_M00128" xr:uid="{1FD5A6B0-79C8-DD40-B6D9-0E5D967AD80C}"/>
-    <hyperlink ref="A152" r:id="rId104" display="https://www.genome.jp/module/mmu_M00095" xr:uid="{1BC27B8F-CFD8-184E-BA23-1F15CDEB221D}"/>
-    <hyperlink ref="A153" r:id="rId105" display="https://www.genome.jp/module/mmu_M00367" xr:uid="{9EB6A5E0-7C8D-A241-9C26-989F941F06DB}"/>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.genome.jp/module/mmu_M00001" xr:uid="{13BB60A7-93D0-2849-B084-BAE7C1089B65}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.genome.jp/module/mmu_M00002" xr:uid="{50C14703-7DD6-4142-A6F9-0DE0BBD37F97}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://www.genome.jp/module/mmu_M00003" xr:uid="{C23889EF-8E0F-114D-B4DB-9AC7C3BEEE2F}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.genome.jp/module/mmu_M00307" xr:uid="{3A52CCE3-6549-C249-AEBD-6B83594C16B3}"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://www.genome.jp/module/mmu_M00009" xr:uid="{68B09BDB-C676-A04F-8E47-50442B28C851}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.genome.jp/module/mmu_M00010" xr:uid="{A37E1D7A-7A13-4142-A01E-851679D94240}"/>
+    <hyperlink ref="A11" r:id="rId7" display="https://www.genome.jp/module/mmu_M00011" xr:uid="{608D00B3-3E24-4B4C-88C9-F2A8D46A1DCC}"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.genome.jp/module/mmu_M00004" xr:uid="{03DA80F2-6199-E940-9C56-036D5DABDA6C}"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://www.genome.jp/module/mmu_M00006" xr:uid="{56B180ED-A136-B849-AB7E-B263CF67FFED}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://www.genome.jp/module/mmu_M00007" xr:uid="{04C07B52-6A0F-E34F-AE28-772AC05EEFA3}"/>
+    <hyperlink ref="A15" r:id="rId11" display="https://www.genome.jp/module/mmu_M00005" xr:uid="{955D1BF2-A147-214E-B4B7-EFDB986F832E}"/>
+    <hyperlink ref="A17" r:id="rId12" display="https://www.genome.jp/module/mmu_M00014" xr:uid="{C97FDDA6-1FA3-C646-9324-F080C0C0334D}"/>
+    <hyperlink ref="A18" r:id="rId13" display="https://www.genome.jp/module/mmu_M00632" xr:uid="{12D202A1-EF96-3046-9310-DAE549D47B18}"/>
+    <hyperlink ref="A19" r:id="rId14" display="https://www.genome.jp/module/mmu_M00129" xr:uid="{70145F47-DA88-3740-801D-B3D3153DC709}"/>
+    <hyperlink ref="A20" r:id="rId15" display="https://www.genome.jp/module/mmu_M00854" xr:uid="{8962133A-D33F-BA47-805A-DDFF88195BB6}"/>
+    <hyperlink ref="A21" r:id="rId16" display="https://www.genome.jp/module/mmu_M00855" xr:uid="{0205BEF3-CE0F-7A40-9E3A-CB8138691EBA}"/>
+    <hyperlink ref="A22" r:id="rId17" display="https://www.genome.jp/module/mmu_M00549" xr:uid="{2430B992-D4C0-1A4C-A1C1-E573FD2A1617}"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://www.genome.jp/module/mmu_M00554" xr:uid="{955E8611-86AB-7046-BCAA-3233CABBC967}"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://www.genome.jp/module/mmu_M00892" xr:uid="{9FF3A924-86BE-5349-9731-35727DFC883E}"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://www.genome.jp/module/mmu_M00741" xr:uid="{91CC6A4E-859D-6648-B3A9-B74625648B6E}"/>
+    <hyperlink ref="A26" r:id="rId21" display="https://www.genome.jp/module/mmu_M00130" xr:uid="{1C9A56D0-21E1-084B-873C-7D3B6A888A89}"/>
+    <hyperlink ref="A27" r:id="rId22" display="https://www.genome.jp/module/mmu_M00131" xr:uid="{F56FAC60-E18D-F64D-B7B1-551256FD60CD}"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://www.genome.jp/module/mmu_M00132" xr:uid="{1C5C97B3-61EF-4448-AC59-B51315F64EB4}"/>
+    <hyperlink ref="A40" r:id="rId24" display="https://www.genome.jp/module/mmu_M00082" xr:uid="{BBAEB398-E841-6245-A815-3E7CB2A607B0}"/>
+    <hyperlink ref="A41" r:id="rId25" display="https://www.genome.jp/module/mmu_M00083" xr:uid="{746A558E-9E86-4D44-B816-51AAF0960A93}"/>
+    <hyperlink ref="A42" r:id="rId26" display="https://www.genome.jp/module/mmu_M00873" xr:uid="{16DE6855-BA62-B74A-8D6C-14F549EBBCA8}"/>
+    <hyperlink ref="A43" r:id="rId27" display="https://www.genome.jp/module/mmu_M00085" xr:uid="{E7E0A911-1E15-F343-9E79-81C0E6CAFA30}"/>
+    <hyperlink ref="A44" r:id="rId28" display="https://www.genome.jp/module/mmu_M00415" xr:uid="{E1EF69C0-FA7A-A340-BA51-AB915A4F4984}"/>
+    <hyperlink ref="A45" r:id="rId29" display="https://www.genome.jp/module/mmu_M00086" xr:uid="{80DB95DA-60F4-2747-9C0E-6C02854ADC5D}"/>
+    <hyperlink ref="A46" r:id="rId30" display="https://www.genome.jp/module/mmu_M00087" xr:uid="{F41726B7-E5E4-D048-9DE2-6EC44D9B79EA}"/>
+    <hyperlink ref="A47" r:id="rId31" display="https://www.genome.jp/module/mmu_M00861" xr:uid="{DCF8C8F0-C2A4-C445-902B-2CCC4895D07C}"/>
+    <hyperlink ref="A49" r:id="rId32" display="https://www.genome.jp/module/mmu_M00101" xr:uid="{3808AEE2-2333-9945-B1D8-5FDB9D4736BC}"/>
+    <hyperlink ref="A50" r:id="rId33" display="https://www.genome.jp/module/mmu_M00103" xr:uid="{59A081FF-1F2F-D148-9217-ADD82E01595F}"/>
+    <hyperlink ref="A51" r:id="rId34" display="https://www.genome.jp/module/mmu_M00106" xr:uid="{9316FE42-3F82-B649-8141-B18A283E5E92}"/>
+    <hyperlink ref="A52" r:id="rId35" display="https://www.genome.jp/module/mmu_M00862" xr:uid="{EAE62B0C-BAD9-E845-8355-C5BE60B9E5FD}"/>
+    <hyperlink ref="A53" r:id="rId36" display="https://www.genome.jp/module/mmu_M00107" xr:uid="{D6D3F57A-2472-D648-A4F5-A7248809AB33}"/>
+    <hyperlink ref="A54" r:id="rId37" display="https://www.genome.jp/module/mmu_M00109" xr:uid="{698C436E-FD57-F042-B19E-0C84AEAF89B2}"/>
+    <hyperlink ref="A55" r:id="rId38" display="https://www.genome.jp/module/mmu_M00110" xr:uid="{CC37E696-0841-D744-AD5C-FA5DE61A124D}"/>
+    <hyperlink ref="A57" r:id="rId39" display="https://www.genome.jp/module/mmu_M00089" xr:uid="{95A9F07A-750F-FD40-B430-0D727206A705}"/>
+    <hyperlink ref="A58" r:id="rId40" display="https://www.genome.jp/module/mmu_M00098" xr:uid="{30FF2D43-6EA5-424B-8028-9584D667C7B7}"/>
+    <hyperlink ref="A59" r:id="rId41" display="https://www.genome.jp/module/mmu_M00090" xr:uid="{E27C6303-7D08-6F41-AA58-FD7E9B78A0B8}"/>
+    <hyperlink ref="A60" r:id="rId42" display="https://www.genome.jp/module/mmu_M00091" xr:uid="{E5406A9C-754F-7041-8485-3892BE054CE0}"/>
+    <hyperlink ref="A61" r:id="rId43" display="https://www.genome.jp/module/mmu_M00092" xr:uid="{E45FF3BF-AA67-9A4A-83B5-C7C4ED113D01}"/>
+    <hyperlink ref="A62" r:id="rId44" display="https://www.genome.jp/module/mmu_M00094" xr:uid="{BBFB0178-9F61-1E41-ACFE-6EBEA1C4318B}"/>
+    <hyperlink ref="A63" r:id="rId45" display="https://www.genome.jp/module/mmu_M00066" xr:uid="{6EEEAF9D-A86B-D64F-852B-AFC1316C7E4C}"/>
+    <hyperlink ref="A64" r:id="rId46" display="https://www.genome.jp/module/mmu_M00067" xr:uid="{3F99BB4F-344A-164E-80C0-467448CF1DC1}"/>
+    <hyperlink ref="A65" r:id="rId47" display="https://www.genome.jp/module/mmu_M00099" xr:uid="{8D0F745B-B7F3-9049-8D8F-5E9D9EF2C581}"/>
+    <hyperlink ref="A66" r:id="rId48" display="https://www.genome.jp/module/mmu_M00100" xr:uid="{95F536E7-4995-8E43-8CCC-43E67C8C6A0F}"/>
+    <hyperlink ref="A71" r:id="rId49" display="https://www.genome.jp/module/mmu_M00048" xr:uid="{D5720EA8-7633-D74A-8132-DBB5278D856A}"/>
+    <hyperlink ref="A72" r:id="rId50" display="https://www.genome.jp/module/mmu_M00049" xr:uid="{A9217C60-06FB-6A4F-97B5-80552C818190}"/>
+    <hyperlink ref="A73" r:id="rId51" display="https://www.genome.jp/module/mmu_M00050" xr:uid="{86A26D7F-8D7D-0840-B500-49B45B3CFD46}"/>
+    <hyperlink ref="A75" r:id="rId52" display="https://www.genome.jp/module/mmu_M00051" xr:uid="{60C6E18B-E5BD-D94A-AE31-FFACC2D32F83}"/>
+    <hyperlink ref="A76" r:id="rId53" display="https://www.genome.jp/module/mmu_M00052" xr:uid="{B1DFEE25-A8D5-814E-A42F-3B799CA0BA9D}"/>
+    <hyperlink ref="A77" r:id="rId54" display="https://www.genome.jp/module/mmu_M00046" xr:uid="{678E34DE-A3FA-2C4D-ABC5-34994ADCBB97}"/>
+    <hyperlink ref="A82" r:id="rId55" display="https://www.genome.jp/module/mmu_M00020" xr:uid="{DD0781E9-AD35-C247-822A-4EA5A7BB1317}"/>
+    <hyperlink ref="A83" r:id="rId56" display="https://www.genome.jp/module/mmu_M00555" xr:uid="{D82B662C-0F8D-954B-B936-8D40B76D7A89}"/>
+    <hyperlink ref="A85" r:id="rId57" display="https://www.genome.jp/module/mmu_M00338" xr:uid="{8F1E5A45-76C1-A84C-AD90-DFD8BEBFC56F}"/>
+    <hyperlink ref="A86" r:id="rId58" display="https://www.genome.jp/module/mmu_M00034" xr:uid="{AE4256E1-ABC6-7645-9FC2-5C69163642E3}"/>
+    <hyperlink ref="A87" r:id="rId59" display="https://www.genome.jp/module/mmu_M00035" xr:uid="{33F3A7CC-83B1-F240-AB2A-F8DC1068B9F9}"/>
+    <hyperlink ref="A89" r:id="rId60" display="https://www.genome.jp/module/mmu_M00036" xr:uid="{D19FC678-16DB-F047-B7B0-4424AF5DD699}"/>
+    <hyperlink ref="A91" r:id="rId61" display="https://www.genome.jp/module/mmu_M00032" xr:uid="{5CF0FD7F-024A-2D42-8070-2E098F91CFC6}"/>
+    <hyperlink ref="A93" r:id="rId62" display="https://www.genome.jp/module/mmu_M00844" xr:uid="{0DB4C0B9-C30C-134E-9783-49B49D63A304}"/>
+    <hyperlink ref="A94" r:id="rId63" display="https://www.genome.jp/module/mmu_M00029" xr:uid="{FE1DA1E2-595D-5941-8C2E-AFF93107A014}"/>
+    <hyperlink ref="A95" r:id="rId64" display="https://www.genome.jp/module/mmu_M00015" xr:uid="{AADAD86A-0066-5649-90D9-37E8F0A24A8F}"/>
+    <hyperlink ref="A96" r:id="rId65" display="https://www.genome.jp/module/mmu_M00047" xr:uid="{2CF9D411-2C5F-EF4B-AC50-398AFB69D160}"/>
+    <hyperlink ref="A98" r:id="rId66" display="https://www.genome.jp/module/mmu_M00133" xr:uid="{E44BBA49-6FE9-EF40-AE8B-4CFA8D9CFB13}"/>
+    <hyperlink ref="A99" r:id="rId67" display="https://www.genome.jp/module/mmu_M00134" xr:uid="{8632991C-6033-CD4C-A73C-91B9384CF7BE}"/>
+    <hyperlink ref="A100" r:id="rId68" display="https://www.genome.jp/module/mmu_M00135" xr:uid="{D55CCCDE-E877-E343-8C37-990933691FAD}"/>
+    <hyperlink ref="A102" r:id="rId69" display="https://www.genome.jp/module/mmu_M00045" xr:uid="{7CC5595D-BB74-E34F-B040-4B7828F16087}"/>
+    <hyperlink ref="A104" r:id="rId70" display="https://www.genome.jp/module/mmu_M00042" xr:uid="{08B39879-857D-D344-A896-E5FCFD097EAE}"/>
+    <hyperlink ref="A105" r:id="rId71" display="https://www.genome.jp/module/mmu_M00043" xr:uid="{851B0437-559D-2D4B-8D81-B16F614FAF4D}"/>
+    <hyperlink ref="A106" r:id="rId72" display="https://www.genome.jp/module/mmu_M00044" xr:uid="{2AC93909-B5EE-D647-8978-AFAD1BC9A150}"/>
+    <hyperlink ref="A107" r:id="rId73" display="https://www.genome.jp/module/mmu_M00037" xr:uid="{7BF63CFF-4703-3847-92FF-F29792EAE615}"/>
+    <hyperlink ref="A108" r:id="rId74" display="https://www.genome.jp/module/mmu_M00038" xr:uid="{DEFF0903-87EF-5444-A9B4-5AE766FE9AB3}"/>
+    <hyperlink ref="A110" r:id="rId75" display="https://www.genome.jp/module/mmu_M00027" xr:uid="{A5B5D288-25F0-4944-A91D-3AA81EDB789A}"/>
+    <hyperlink ref="A111" r:id="rId76" display="https://www.genome.jp/module/mmu_M00118" xr:uid="{5516E71D-4277-A541-9116-E8E62119E867}"/>
+    <hyperlink ref="A116" r:id="rId77" display="https://www.genome.jp/module/mmu_M00055" xr:uid="{20FE956C-CA0C-DE4B-BF8E-30788E418AD2}"/>
+    <hyperlink ref="A117" r:id="rId78" display="https://www.genome.jp/module/mmu_M00072" xr:uid="{B71FE16A-3037-8442-B725-7C935A989890}"/>
+    <hyperlink ref="A118" r:id="rId79" display="https://www.genome.jp/module/mmu_M00073" xr:uid="{D9F6BA15-CC64-2347-ABD7-D81C23EAB745}"/>
+    <hyperlink ref="A119" r:id="rId80" display="https://www.genome.jp/module/mmu_M00075" xr:uid="{ED23803A-BE33-7D4A-9C49-6D4F6335DFA5}"/>
+    <hyperlink ref="A120" r:id="rId81" display="https://www.genome.jp/module/mmu_M00056" xr:uid="{ED17EA33-5EE9-7E40-8235-ED7718D65F6F}"/>
+    <hyperlink ref="A121" r:id="rId82" display="https://www.genome.jp/module/mmu_M00872" xr:uid="{C2128BD3-8072-4D4A-9503-B48A7AFAADB9}"/>
+    <hyperlink ref="A122" r:id="rId83" display="https://www.genome.jp/module/mmu_M00065" xr:uid="{D8F20DCF-E286-154C-9D6C-86E624834D27}"/>
+    <hyperlink ref="A123" r:id="rId84" display="https://www.genome.jp/module/mmu_M00070" xr:uid="{07ED02B4-2BF3-2A4D-A621-96EAD5A24F4D}"/>
+    <hyperlink ref="A124" r:id="rId85" display="https://www.genome.jp/module/mmu_M00071" xr:uid="{D798C74D-2EC5-AC4C-A5F2-83FEB40CEB5A}"/>
+    <hyperlink ref="A125" r:id="rId86" display="https://www.genome.jp/module/mmu_M00068" xr:uid="{F34FDA83-92CF-354A-BF4D-707D7C26C873}"/>
+    <hyperlink ref="A126" r:id="rId87" display="https://www.genome.jp/module/mmu_M00069" xr:uid="{E1686847-F11D-704F-AF0A-9E8729137141}"/>
+    <hyperlink ref="A128" r:id="rId88" display="https://www.genome.jp/module/mmu_M00057" xr:uid="{14B60993-9898-A24F-9CA6-09DCE33B1798}"/>
+    <hyperlink ref="A129" r:id="rId89" display="https://www.genome.jp/module/mmu_M00058" xr:uid="{4622255C-E04E-E047-9CB7-E4912AA57665}"/>
+    <hyperlink ref="A130" r:id="rId90" display="https://www.genome.jp/module/mmu_M00059" xr:uid="{BB3A7608-2DE6-7945-93F9-D6A8FC8F4452}"/>
+    <hyperlink ref="A131" r:id="rId91" display="https://www.genome.jp/module/mmu_M00076" xr:uid="{B477DA15-DDEE-6249-82F2-DCD1293EFF9F}"/>
+    <hyperlink ref="A132" r:id="rId92" display="https://www.genome.jp/module/mmu_M00077" xr:uid="{B670DAAF-E3DE-7F42-A6CE-CD419328E263}"/>
+    <hyperlink ref="A133" r:id="rId93" display="https://www.genome.jp/module/mmu_M00078" xr:uid="{15ABD6B3-DDFA-B940-AB31-A74A723F1797}"/>
+    <hyperlink ref="A134" r:id="rId94" display="https://www.genome.jp/module/mmu_M00079" xr:uid="{1E008257-2C98-254E-8DC4-924767CA8A8A}"/>
+    <hyperlink ref="A140" r:id="rId95" display="https://www.genome.jp/module/mmu_M00912" xr:uid="{9688BA15-F232-3042-BAA5-3D722431E5AC}"/>
+    <hyperlink ref="A141" r:id="rId96" display="https://www.genome.jp/module/mmu_M00120" xr:uid="{A26DB127-23CC-2A4A-BC24-4E8D279A53EB}"/>
+    <hyperlink ref="A142" r:id="rId97" display="https://www.genome.jp/module/mmu_M00882" xr:uid="{F9B3F81B-CFDA-A142-A137-B83C1A7F2734}"/>
+    <hyperlink ref="A143" r:id="rId98" display="https://www.genome.jp/module/mmu_M00883" xr:uid="{96905A49-BEDB-2E4A-8A15-8326099D388D}"/>
+    <hyperlink ref="A144" r:id="rId99" display="https://www.genome.jp/module/mmu_M00842" xr:uid="{0A7D16C7-A884-3947-94BA-D1749EB01B4F}"/>
+    <hyperlink ref="A145" r:id="rId100" display="https://www.genome.jp/module/mmu_M00880" xr:uid="{0D2F5C0F-C816-2F44-B82E-7B08BB477FF7}"/>
+    <hyperlink ref="A146" r:id="rId101" display="https://www.genome.jp/module/mmu_M00141" xr:uid="{F56DF094-B453-8749-A72B-5EDF5E43191F}"/>
+    <hyperlink ref="A147" r:id="rId102" display="https://www.genome.jp/module/mmu_M00868" xr:uid="{BEA2A7AD-7B00-8245-A8C8-92DA305D7868}"/>
+    <hyperlink ref="A148" r:id="rId103" display="https://www.genome.jp/module/mmu_M00128" xr:uid="{1FD5A6B0-79C8-DD40-B6D9-0E5D967AD80C}"/>
+    <hyperlink ref="A153" r:id="rId104" display="https://www.genome.jp/module/mmu_M00095" xr:uid="{1BC27B8F-CFD8-184E-BA23-1F15CDEB221D}"/>
+    <hyperlink ref="A154" r:id="rId105" display="https://www.genome.jp/module/mmu_M00367" xr:uid="{9EB6A5E0-7C8D-A241-9C26-989F941F06DB}"/>
+    <hyperlink ref="D8" r:id="rId106" display="https://www.sciencedirect.com/book/9780128008775/mitochondrial-case-studies" xr:uid="{59D97090-A434-594E-BCF8-A9CCDE676E3D}"/>
+    <hyperlink ref="D15" r:id="rId107" display="https://www.sciencedirect.com/book/9780124498518/genetic-diseases-of-the-kidney" xr:uid="{20D0B075-B607-4E43-AFB5-CDB03E40EE8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
